--- a/biology/Médecine/Corinne_Le_Goff/Corinne_Le_Goff.xlsx
+++ b/biology/Médecine/Corinne_Le_Goff/Corinne_Le_Goff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Le Goff, née le 24 septembre 1965 à Nantes, est une dirigeante de sociétés franco-américaine dans le domaine de l'industrie pharmaceutique et des biotechnologies. Elle est mariée et a deux enfants.
 Depuis le 1er juin 2015, elle est Senior vice-présidente et mandataire de l'entreprise américaine Amgen.
@@ -514,20 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Corinne Le Goff obtient en 1991 un doctorat en pharmacie à l'université Paris-Descartes[1] et en 1995 une maîtrise en administration des affaires à l’Institut européen d'administration des affaires, complétés par un Master à l'INSEAD,  et des formations en finance de l'université Kellogg et de l'université des sciences et technologies de Hong Kong[2].
-Parcours professionnel
-Corinne Le Goff a commencé sa carrière en recherche au CNRS à Gif-sur-Yvette où elle travaille au sein de l'équipe du Pr. Pierre Potier sur la synthèse d'anti-tumoraux. 
-Elle rejoint ensuite l'industrie pharmaceutique où elle occupera différents postes [2].
-En 1990, elle est chef de produits chez Aventis, avant de rejoindre Pfizer aux États-Unis, en tant que directrice marketing des soins endocriniens. Puis elle rejoint le groupe Sanofi-Aventis toujours aux États-Unis, en septembre 2002. Elle est nommée directrice exécutive, chargée de la commercialisation des nouveaux produits, en mars 2004, avant d’assurer la vice-présidence de la franchise SNC pour les États-Unis dès octobre 2004. 
-Elle travaille ensuite au sein des laboratoires Merck Serono : elle est durant trois ans Senior vice-présidente des Franchises Globales  Neurologie &amp; Immunologie.
-Puis en septembre 2011, elle rejoint les laboratoires Roche, d’abord comme Senior vice-présidente du pôle thérapeutique Neuroscience Stratégie Produit mondiale, avant de prendre la présidence de Roche France SAS en juin 2012[3].
-Elle est nommée administratrice de la Compagnie française de l'Afrique occidentale (CFAO) le 28 octobre 2014[4].
-Le 1er juin 2015, elle est nommée Senior vice-présidente et responsable de la région Europe de l'entreprise américaine Amgen[5]. Elle est ensuite nommée en 2018 Senior vice-présidente de la Stratégie mondiale du portefeuille de produits puis en 2019 elle est promue à la tête de la filiale américaine d'Amgen en charge d'un chiffre d'affaires de plus de $18 milliards.
-Autres activités
-Elle a été membre du comité de filière « Industries et technologies de santé » au ministère chargé de l’Économie, de l’Industrie et du Numérique[6], Présidente du LIR[7] , Membre du conseil d'administration du LEEM et de l'EFPIA European Markets Committee.
-Elle est aujourd'hui au board du Healthcare Leadership Council[8] à Washington DC et du Pacific Council on International Policy[9]
-Elle est membre du think-tank Le Siècle
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corinne Le Goff obtient en 1991 un doctorat en pharmacie à l'université Paris-Descartes et en 1995 une maîtrise en administration des affaires à l’Institut européen d'administration des affaires, complétés par un Master à l'INSEAD,  et des formations en finance de l'université Kellogg et de l'université des sciences et technologies de Hong Kong.
 </t>
         </is>
       </c>
@@ -553,12 +558,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corinne Le Goff a commencé sa carrière en recherche au CNRS à Gif-sur-Yvette où elle travaille au sein de l'équipe du Pr. Pierre Potier sur la synthèse d'anti-tumoraux. 
+Elle rejoint ensuite l'industrie pharmaceutique où elle occupera différents postes .
+En 1990, elle est chef de produits chez Aventis, avant de rejoindre Pfizer aux États-Unis, en tant que directrice marketing des soins endocriniens. Puis elle rejoint le groupe Sanofi-Aventis toujours aux États-Unis, en septembre 2002. Elle est nommée directrice exécutive, chargée de la commercialisation des nouveaux produits, en mars 2004, avant d’assurer la vice-présidence de la franchise SNC pour les États-Unis dès octobre 2004. 
+Elle travaille ensuite au sein des laboratoires Merck Serono : elle est durant trois ans Senior vice-présidente des Franchises Globales  Neurologie &amp; Immunologie.
+Puis en septembre 2011, elle rejoint les laboratoires Roche, d’abord comme Senior vice-présidente du pôle thérapeutique Neuroscience Stratégie Produit mondiale, avant de prendre la présidence de Roche France SAS en juin 2012.
+Elle est nommée administratrice de la Compagnie française de l'Afrique occidentale (CFAO) le 28 octobre 2014.
+Le 1er juin 2015, elle est nommée Senior vice-présidente et responsable de la région Europe de l'entreprise américaine Amgen. Elle est ensuite nommée en 2018 Senior vice-présidente de la Stratégie mondiale du portefeuille de produits puis en 2019 elle est promue à la tête de la filiale américaine d'Amgen en charge d'un chiffre d'affaires de plus de $18 milliards.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corinne_Le_Goff</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corinne_Le_Goff</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été membre du comité de filière « Industries et technologies de santé » au ministère chargé de l’Économie, de l’Industrie et du Numérique, Présidente du LIR , Membre du conseil d'administration du LEEM et de l'EFPIA European Markets Committee.
+Elle est aujourd'hui au board du Healthcare Leadership Council à Washington DC et du Pacific Council on International Policy
+Elle est membre du think-tank Le Siècle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corinne_Le_Goff</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corinne_Le_Goff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 1er janvier 2014, Corinne Le Goff est nommée chevalier de l'ordre national de la Légion d'honneur au titre de ses « 23 années de services »[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er janvier 2014, Corinne Le Goff est nommée chevalier de l'ordre national de la Légion d'honneur au titre de ses « 23 années de services ».
 </t>
         </is>
       </c>
